--- a/Code/Results/Cases/Case_1_92/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_92/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.256518690580785</v>
+        <v>5.942807952859368</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.355908305744287</v>
+        <v>4.563323565394718</v>
       </c>
       <c r="E2">
-        <v>12.92619353520706</v>
+        <v>12.39846029903014</v>
       </c>
       <c r="F2">
-        <v>18.37427289771288</v>
+        <v>23.13584562483873</v>
       </c>
       <c r="G2">
-        <v>2.071301580346793</v>
+        <v>3.620216811455744</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.80357487514267</v>
+        <v>19.86122920051779</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.02808010893534</v>
+        <v>10.39283784207068</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.65386635003676</v>
+        <v>13.70291929367718</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.38548171669583</v>
+        <v>20.64567129158716</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.850237891604103</v>
+        <v>5.813417697830533</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.225051739881468</v>
+        <v>4.516685529333609</v>
       </c>
       <c r="E3">
-        <v>12.23537265563273</v>
+        <v>12.27229026009132</v>
       </c>
       <c r="F3">
-        <v>17.86023795578365</v>
+        <v>23.13429470482652</v>
       </c>
       <c r="G3">
-        <v>2.076686613042863</v>
+        <v>3.622226647265002</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.17112120620401</v>
+        <v>19.98322573029162</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.14794472963241</v>
+        <v>9.946387375841262</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.59775994368827</v>
+        <v>13.4472273269489</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.22935698324991</v>
+        <v>20.70308937203066</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.587606646255891</v>
+        <v>5.733210816678895</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.142242680295144</v>
+        <v>4.487456247845639</v>
       </c>
       <c r="E4">
-        <v>11.80617685066953</v>
+        <v>12.19904410531813</v>
       </c>
       <c r="F4">
-        <v>17.55846283560975</v>
+        <v>23.14090834035354</v>
       </c>
       <c r="G4">
-        <v>2.080090979336138</v>
+        <v>3.623525896958909</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.40289286344348</v>
+        <v>20.06190135356284</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.58087167106454</v>
+        <v>9.659854535169691</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.91518462598938</v>
+        <v>13.29075024692689</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.1493998541341</v>
+        <v>20.74405785119519</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.477306876522047</v>
+        <v>5.700379323544152</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.107908504134437</v>
+        <v>4.47540189567056</v>
       </c>
       <c r="E5">
-        <v>11.63023063627063</v>
+        <v>12.17029133549018</v>
       </c>
       <c r="F5">
-        <v>17.43906914127983</v>
+        <v>23.14550351547362</v>
       </c>
       <c r="G5">
-        <v>2.081503602408032</v>
+        <v>3.624071800283807</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.49890911129424</v>
+        <v>20.09491279055556</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.34317278679043</v>
+        <v>9.54006820147711</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.6284327064252</v>
+        <v>13.2272026445543</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.12069630559217</v>
+        <v>20.76218407747638</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.458795156296489</v>
+        <v>5.694920168356521</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.102172724247559</v>
+        <v>4.473391809440074</v>
       </c>
       <c r="E6">
-        <v>11.60095895537799</v>
+        <v>12.16558406603736</v>
       </c>
       <c r="F6">
-        <v>17.41946298933496</v>
+        <v>23.14638119767184</v>
       </c>
       <c r="G6">
-        <v>2.081739715967536</v>
+        <v>3.624163442120683</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.51494818874207</v>
+        <v>20.10045179989163</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.30330698642492</v>
+        <v>9.519998440805193</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.58029835969578</v>
+        <v>13.21666636429565</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.11616070173449</v>
+        <v>20.76528019969978</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.586132310088821</v>
+        <v>5.732768572662785</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.14178197931766</v>
+        <v>4.487294250372981</v>
       </c>
       <c r="E7">
-        <v>11.8038078920631</v>
+        <v>12.19865185666488</v>
       </c>
       <c r="F7">
-        <v>17.55683802128415</v>
+        <v>23.14096262364032</v>
       </c>
       <c r="G7">
-        <v>2.080109927071809</v>
+        <v>3.623533192532557</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.40418138101227</v>
+        <v>20.06234270534231</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.57769260932854</v>
+        <v>9.658251148709979</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.9113522087242</v>
+        <v>13.28989222227055</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.14899720606634</v>
+        <v>20.74429652033137</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.119186194083547</v>
+        <v>5.898378411588793</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.311317417057698</v>
+        <v>4.547369494464101</v>
       </c>
       <c r="E8">
-        <v>12.68916110618555</v>
+        <v>12.35410154227642</v>
       </c>
       <c r="F8">
-        <v>18.19422353669421</v>
+        <v>23.13373956671119</v>
       </c>
       <c r="G8">
-        <v>2.073138439752988</v>
+        <v>3.62089630195883</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.92906051760344</v>
+        <v>19.90251290658284</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.73019198551066</v>
+        <v>10.24153230823836</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.29678784632152</v>
+        <v>13.61470122915489</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.32828073886705</v>
+        <v>20.66428001024688</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.058855498479511</v>
+        <v>6.215227141364752</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.623050846855102</v>
+        <v>4.660211305420528</v>
       </c>
       <c r="E9">
-        <v>14.37792096764424</v>
+        <v>12.69082953961534</v>
       </c>
       <c r="F9">
-        <v>19.54924707582106</v>
+        <v>23.17964520948732</v>
       </c>
       <c r="G9">
-        <v>2.060211311170411</v>
+        <v>3.616240305454796</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.04410964795281</v>
+        <v>19.61887147007902</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.77583273088725</v>
+        <v>11.28324198282091</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.74444036406149</v>
+        <v>14.25198978089723</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.81077542111852</v>
+        <v>20.55293211985332</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.683904694349314</v>
+        <v>6.44082574236813</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.838067050145255</v>
+        <v>4.739754198062028</v>
       </c>
       <c r="E10">
-        <v>15.65899513290898</v>
+        <v>12.95534782812</v>
       </c>
       <c r="F10">
-        <v>20.60256843608009</v>
+        <v>23.24994013175752</v>
       </c>
       <c r="G10">
-        <v>2.051118003826265</v>
+        <v>3.61313008363188</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.42011482827675</v>
+        <v>19.4284634253308</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.14581056638669</v>
+        <v>11.98234770527418</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.3817634561948</v>
+        <v>14.71550588476573</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.25069307737468</v>
+        <v>20.49919311091648</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.954009205059922</v>
+        <v>6.541439636274565</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.932604543186432</v>
+        <v>4.775142035442228</v>
       </c>
       <c r="E11">
-        <v>16.2881552527696</v>
+        <v>13.07887501852657</v>
       </c>
       <c r="F11">
-        <v>21.09308963869532</v>
+        <v>23.28981306128655</v>
       </c>
       <c r="G11">
-        <v>2.047057241928979</v>
+        <v>3.611781874055985</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.14140507526418</v>
+        <v>19.34570975961178</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.74006402349312</v>
+        <v>12.28537393349288</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.09258486358706</v>
+        <v>14.92436975555924</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.47034957860694</v>
+        <v>20.48089423224153</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.054244838214267</v>
+        <v>6.57921548753408</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.967916254767428</v>
+        <v>4.788422366557443</v>
       </c>
       <c r="E12">
-        <v>16.5232832587406</v>
+        <v>13.12606555628429</v>
       </c>
       <c r="F12">
-        <v>21.28038535675285</v>
+        <v>23.30604051184133</v>
       </c>
       <c r="G12">
-        <v>2.045529393727683</v>
+        <v>3.611280871188959</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.03656218574567</v>
+        <v>19.31492597703357</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.96093624675316</v>
+        <v>12.3979235679288</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.35695208404263</v>
+        <v>15.00309770016975</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.55640385249137</v>
+        <v>20.47485252565985</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.032748306623505</v>
+        <v>6.57109474437704</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.960333171743525</v>
+        <v>4.785567648121837</v>
       </c>
       <c r="E13">
-        <v>16.47278118458681</v>
+        <v>13.11588458074831</v>
       </c>
       <c r="F13">
-        <v>21.23998032514684</v>
+        <v>23.30249558084729</v>
       </c>
       <c r="G13">
-        <v>2.045858021266797</v>
+        <v>3.611388347828508</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.05911158754494</v>
+        <v>19.3215312479484</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.91355220464225</v>
+        <v>12.37378243093434</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.30022813882985</v>
+        <v>14.98615962537103</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.53774167111082</v>
+        <v>20.4761141815717</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.962296664524954</v>
+        <v>6.544554172909375</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.935519518007293</v>
+        <v>4.776237058912052</v>
       </c>
       <c r="E14">
-        <v>16.30756126230587</v>
+        <v>13.0827493921396</v>
       </c>
       <c r="F14">
-        <v>21.10846802698124</v>
+        <v>23.29112553356561</v>
       </c>
       <c r="G14">
-        <v>2.046931353225907</v>
+        <v>3.611740465434182</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.13276583182674</v>
+        <v>19.34316608525194</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.75831858610423</v>
+        <v>12.29467776611246</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.11443030071874</v>
+        <v>14.93085448273073</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.47737133915295</v>
+        <v>20.48037936744795</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.918876470928426</v>
+        <v>6.528254054625932</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.920256486011187</v>
+        <v>4.770505973446578</v>
       </c>
       <c r="E15">
-        <v>16.20595624425388</v>
+        <v>13.06250559934342</v>
       </c>
       <c r="F15">
-        <v>21.0281119707834</v>
+        <v>23.28430777256944</v>
       </c>
       <c r="G15">
-        <v>2.047590054044181</v>
+        <v>3.611957387910917</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.1779708877031</v>
+        <v>19.3564900247441</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.66269229878504</v>
+        <v>12.24593625034494</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.00000063743052</v>
+        <v>14.89692880693406</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.44076903798276</v>
+        <v>20.48310762100509</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.665966189685232</v>
+        <v>6.434206841105886</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.831821426594858</v>
+        <v>4.737424996523998</v>
       </c>
       <c r="E16">
-        <v>15.6174351037713</v>
+        <v>12.94733542256752</v>
       </c>
       <c r="F16">
-        <v>20.570732451856</v>
+        <v>23.24749266642433</v>
       </c>
       <c r="G16">
-        <v>2.051384823769007</v>
+        <v>3.613219529208374</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.43842920015407</v>
+        <v>19.43394911879106</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.10639218878836</v>
+        <v>11.96223855217418</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.33463231921429</v>
+        <v>14.70180931104938</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.23673690831317</v>
+        <v>20.50051301298679</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.507166774811111</v>
+        <v>6.375970807400755</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.776718032445664</v>
+        <v>4.716922728897173</v>
       </c>
       <c r="E17">
-        <v>15.25071838748389</v>
+        <v>12.87746828406378</v>
       </c>
       <c r="F17">
-        <v>20.29298709501446</v>
+        <v>23.22692562675775</v>
       </c>
       <c r="G17">
-        <v>2.053731505143617</v>
+        <v>3.614010846823194</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.59950100581533</v>
+        <v>19.48245569489938</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.75770335314071</v>
+        <v>11.78432435986221</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.91779769048669</v>
+        <v>14.58154298540339</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.11662253387006</v>
+        <v>20.5127679168963</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.41448955010625</v>
+        <v>6.34228753943149</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.744716649004761</v>
+        <v>4.705055716361641</v>
       </c>
       <c r="E18">
-        <v>15.05575345803744</v>
+        <v>12.83758623647318</v>
       </c>
       <c r="F18">
-        <v>20.13430890859363</v>
+        <v>23.21583968756923</v>
       </c>
       <c r="G18">
-        <v>2.055088457706022</v>
+        <v>3.614472267706935</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.69263241962794</v>
+        <v>19.51071922522341</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.55442008731594</v>
+        <v>11.68058294564511</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.67483900821696</v>
+        <v>14.51218589378276</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.04937130355017</v>
+        <v>20.52039503183798</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.382880568093508</v>
+        <v>6.330851881505427</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.7338292895129</v>
+        <v>4.70102510570002</v>
       </c>
       <c r="E19">
-        <v>14.99468969650115</v>
+        <v>12.82413641569113</v>
       </c>
       <c r="F19">
-        <v>20.08077052748726</v>
+        <v>23.21221408885904</v>
       </c>
       <c r="G19">
-        <v>2.055549165863086</v>
+        <v>3.614629576277871</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.72425005496705</v>
+        <v>19.52035133250571</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.48512360635416</v>
+        <v>11.64521716543665</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.59202426230688</v>
+        <v>14.48867376742512</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.02691429762237</v>
+        <v>20.52307666467906</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.524209944429375</v>
+        <v>6.382189794469391</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.782615823214389</v>
+        <v>4.719112998314484</v>
       </c>
       <c r="E20">
-        <v>15.28997467961847</v>
+        <v>12.88487466301874</v>
       </c>
       <c r="F20">
-        <v>20.32244313664465</v>
+        <v>23.22903809992372</v>
       </c>
       <c r="G20">
-        <v>2.053480958583858</v>
+        <v>3.613925960531771</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.58230451846816</v>
+        <v>19.47725444933484</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.79510407679113</v>
+        <v>11.80340987984516</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.96250172257579</v>
+        <v>14.59436506607196</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.12921846018368</v>
+        <v>20.51140346883421</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.983045558682745</v>
+        <v>6.55235885491016</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.942821243710486</v>
+        <v>4.778980988092102</v>
       </c>
       <c r="E21">
-        <v>16.35617413928663</v>
+        <v>13.09247114920734</v>
       </c>
       <c r="F21">
-        <v>21.14705503222208</v>
+        <v>23.29443463023107</v>
       </c>
       <c r="G21">
-        <v>2.046615830230491</v>
+        <v>3.611636781572104</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.11111317608469</v>
+        <v>19.33679641339974</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.80402722466778</v>
+        <v>12.31797273049052</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.16913332227104</v>
+        <v>14.94710942992551</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.49502504574115</v>
+        <v>20.47910246041952</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.270991875319773</v>
+        <v>6.661668530485692</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.044676663494267</v>
+        <v>4.81740459785054</v>
       </c>
       <c r="E22">
-        <v>17.03486544422358</v>
+        <v>13.2305357975114</v>
       </c>
       <c r="F22">
-        <v>21.69497000461147</v>
+        <v>23.34374802365007</v>
       </c>
       <c r="G22">
-        <v>2.042186090003411</v>
+        <v>3.610196224760203</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.80721372322415</v>
+        <v>19.2482225504912</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.4391878929625</v>
+        <v>12.64143222522826</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.92977379623365</v>
+        <v>15.17549184802334</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.75088577689345</v>
+        <v>20.46316733960413</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.118400088528439</v>
+        <v>6.603513218872272</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.990580009393158</v>
+        <v>4.79696341646914</v>
       </c>
       <c r="E23">
-        <v>16.67425468269482</v>
+        <v>13.15664492773568</v>
       </c>
       <c r="F23">
-        <v>21.40173982164215</v>
+        <v>23.31682983710714</v>
       </c>
       <c r="G23">
-        <v>2.044545469925036</v>
+        <v>3.610960009867447</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.96905385376886</v>
+        <v>19.29520191346994</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.10240275969407</v>
+        <v>12.46998266433651</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.52633365450801</v>
+        <v>15.05382181124023</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.61277203464691</v>
+        <v>20.47119756184275</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.516509029895847</v>
+        <v>6.379378818777501</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.779950432761315</v>
+        <v>4.718123026202552</v>
       </c>
       <c r="E24">
-        <v>15.27223381740819</v>
+        <v>12.88152534629026</v>
       </c>
       <c r="F24">
-        <v>20.30912293445632</v>
+        <v>23.22808075043083</v>
       </c>
       <c r="G24">
-        <v>2.053594206267117</v>
+        <v>3.61396431742985</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.59007739924048</v>
+        <v>19.4796047596222</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.77820398548334</v>
+        <v>11.79478584866639</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.94230136111275</v>
+        <v>14.58856886517137</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.12351822750458</v>
+        <v>20.51201852437556</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.816082213110594</v>
+        <v>6.130611213458269</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.541090758923703</v>
+        <v>4.630251282394996</v>
       </c>
       <c r="E25">
-        <v>13.92702810227374</v>
+        <v>12.59655355192881</v>
       </c>
       <c r="F25">
-        <v>19.17208499161216</v>
+        <v>23.16079429322947</v>
       </c>
       <c r="G25">
-        <v>2.063633691804425</v>
+        <v>3.617445099086462</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.27874243629814</v>
+        <v>19.69243345347992</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.24568968658708</v>
+        <v>11.01281820610098</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.11082497739248</v>
+        <v>14.08006721630864</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.66560747684313</v>
+        <v>20.57814499268383</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_92/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_92/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.942807952859368</v>
+        <v>7.256518690580744</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.563323565394718</v>
+        <v>4.355908305744376</v>
       </c>
       <c r="E2">
-        <v>12.39846029903014</v>
+        <v>12.92619353520706</v>
       </c>
       <c r="F2">
-        <v>23.13584562483873</v>
+        <v>18.37427289771264</v>
       </c>
       <c r="G2">
-        <v>3.620216811455744</v>
+        <v>2.071301580346526</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.86122920051779</v>
+        <v>12.80357487514259</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.39283784207068</v>
+        <v>16.02808010893549</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.70291929367718</v>
+        <v>16.65386635003683</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.64567129158716</v>
+        <v>14.38548171669558</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.813417697830533</v>
+        <v>6.850237891604024</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.516685529333609</v>
+        <v>4.225051739881467</v>
       </c>
       <c r="E3">
-        <v>12.27229026009132</v>
+        <v>12.23537265563273</v>
       </c>
       <c r="F3">
-        <v>23.13429470482652</v>
+        <v>17.86023795578357</v>
       </c>
       <c r="G3">
-        <v>3.622226647265002</v>
+        <v>2.076686613042732</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.98322573029162</v>
+        <v>13.17112120620402</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.946387375841262</v>
+        <v>15.14794472963248</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.4472273269489</v>
+        <v>15.59775994368831</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.70308937203066</v>
+        <v>14.22935698324982</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.733210816678895</v>
+        <v>6.587606646255896</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.487456247845639</v>
+        <v>4.14224268029504</v>
       </c>
       <c r="E4">
-        <v>12.19904410531813</v>
+        <v>11.80617685066954</v>
       </c>
       <c r="F4">
-        <v>23.14090834035354</v>
+        <v>17.55846283560964</v>
       </c>
       <c r="G4">
-        <v>3.623525896958909</v>
+        <v>2.080090979336272</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.06190135356284</v>
+        <v>13.40289286344348</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.659854535169691</v>
+        <v>14.58087167106465</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.29075024692689</v>
+        <v>14.91518462598945</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.74405785119519</v>
+        <v>14.14939985413395</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.700379323544152</v>
+        <v>6.477306876522055</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.47540189567056</v>
+        <v>4.107908504134278</v>
       </c>
       <c r="E5">
-        <v>12.17029133549018</v>
+        <v>11.63023063627067</v>
       </c>
       <c r="F5">
-        <v>23.14550351547362</v>
+        <v>17.43906914127969</v>
       </c>
       <c r="G5">
-        <v>3.624071800283807</v>
+        <v>2.081503602408167</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.09491279055556</v>
+        <v>13.49890911129414</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.54006820147711</v>
+        <v>14.3431727867905</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.2272026445543</v>
+        <v>14.62843270642522</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.76218407747638</v>
+        <v>14.12069630559203</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.694920168356521</v>
+        <v>6.458795156296448</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.473391809440074</v>
+        <v>4.10217272424749</v>
       </c>
       <c r="E6">
-        <v>12.16558406603736</v>
+        <v>11.60095895537802</v>
       </c>
       <c r="F6">
-        <v>23.14638119767184</v>
+        <v>17.41946298933492</v>
       </c>
       <c r="G6">
-        <v>3.624163442120683</v>
+        <v>2.08173971596767</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.10045179989163</v>
+        <v>13.51494818874207</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.519998440805193</v>
+        <v>14.30330698642495</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.21666636429565</v>
+        <v>14.58029835969578</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.76528019969978</v>
+        <v>14.11616070173439</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.732768572662785</v>
+        <v>6.586132310088781</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.487294250372981</v>
+        <v>4.14178197931766</v>
       </c>
       <c r="E7">
-        <v>12.19865185666488</v>
+        <v>11.8038078920631</v>
       </c>
       <c r="F7">
-        <v>23.14096262364032</v>
+        <v>17.55683802128395</v>
       </c>
       <c r="G7">
-        <v>3.623533192532557</v>
+        <v>2.080109927071808</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.06234270534231</v>
+        <v>13.40418138101223</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.658251148709979</v>
+        <v>14.57769260932861</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.28989222227055</v>
+        <v>14.91135220872423</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.74429652033137</v>
+        <v>14.14899720606618</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.898378411588793</v>
+        <v>7.11918619408357</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.547369494464101</v>
+        <v>4.311317417057596</v>
       </c>
       <c r="E8">
-        <v>12.35410154227642</v>
+        <v>12.68916110618558</v>
       </c>
       <c r="F8">
-        <v>23.13373956671119</v>
+        <v>18.19422353669404</v>
       </c>
       <c r="G8">
-        <v>3.62089630195883</v>
+        <v>2.073138439752987</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.90251290658284</v>
+        <v>12.92906051760323</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.24153230823836</v>
+        <v>15.73019198551073</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.61470122915489</v>
+        <v>16.29678784632153</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.66428001024688</v>
+        <v>14.32828073886681</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.215227141364752</v>
+        <v>8.058855498479597</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.660211305420528</v>
+        <v>4.623050846855126</v>
       </c>
       <c r="E9">
-        <v>12.69082953961534</v>
+        <v>14.37792096764423</v>
       </c>
       <c r="F9">
-        <v>23.17964520948732</v>
+        <v>19.549247075821</v>
       </c>
       <c r="G9">
-        <v>3.616240305454796</v>
+        <v>2.06021131117041</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.61887147007902</v>
+        <v>12.04410964795271</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.28324198282091</v>
+        <v>17.77583273088736</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.25198978089723</v>
+        <v>18.74444036406156</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.55293211985332</v>
+        <v>14.81077542111843</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.44082574236813</v>
+        <v>8.683904694349266</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.739754198062028</v>
+        <v>4.83806705014528</v>
       </c>
       <c r="E10">
-        <v>12.95534782812</v>
+        <v>15.65899513290897</v>
       </c>
       <c r="F10">
-        <v>23.24994013175752</v>
+        <v>20.60256843607998</v>
       </c>
       <c r="G10">
-        <v>3.61313008363188</v>
+        <v>2.051118003826264</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.4284634253308</v>
+        <v>11.42011482827665</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.98234770527418</v>
+        <v>19.14581056638667</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.71550588476573</v>
+        <v>20.38176345619477</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.49919311091648</v>
+        <v>15.25069307737461</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.541439636274565</v>
+        <v>8.954009205059878</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.775142035442228</v>
+        <v>4.932604543186393</v>
       </c>
       <c r="E11">
-        <v>13.07887501852657</v>
+        <v>16.28815525276962</v>
       </c>
       <c r="F11">
-        <v>23.28981306128655</v>
+        <v>21.09308963869523</v>
       </c>
       <c r="G11">
-        <v>3.611781874055985</v>
+        <v>2.047057241929114</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.34570975961178</v>
+        <v>11.1414050752641</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.28537393349288</v>
+        <v>19.74006402349319</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.92436975555924</v>
+        <v>21.09258486358711</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.48089423224153</v>
+        <v>15.47034957860684</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.57921548753408</v>
+        <v>9.054244838214267</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.788422366557443</v>
+        <v>4.967916254767438</v>
       </c>
       <c r="E12">
-        <v>13.12606555628429</v>
+        <v>16.52328325874059</v>
       </c>
       <c r="F12">
-        <v>23.30604051184133</v>
+        <v>21.28038535675285</v>
       </c>
       <c r="G12">
-        <v>3.611280871188959</v>
+        <v>2.045529393727681</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.31492597703357</v>
+        <v>11.0365621857457</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.3979235679288</v>
+        <v>19.96093624675321</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.00309770016975</v>
+        <v>21.35695208404266</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.47485252565985</v>
+        <v>15.55640385249137</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.57109474437704</v>
+        <v>9.032748306623505</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.785567648121837</v>
+        <v>4.960333171743633</v>
       </c>
       <c r="E13">
-        <v>13.11588458074831</v>
+        <v>16.47278118458677</v>
       </c>
       <c r="F13">
-        <v>23.30249558084729</v>
+        <v>21.23998032514679</v>
       </c>
       <c r="G13">
-        <v>3.611388347828508</v>
+        <v>2.045858021266798</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.3215312479484</v>
+        <v>11.05911158754491</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.37378243093434</v>
+        <v>19.91355220464227</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.98615962537103</v>
+        <v>21.30022813882985</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.4761141815717</v>
+        <v>15.53774167111079</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.544554172909375</v>
+        <v>8.962296664524949</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.776237058912052</v>
+        <v>4.935519518007369</v>
       </c>
       <c r="E14">
-        <v>13.0827493921396</v>
+        <v>16.30756126230587</v>
       </c>
       <c r="F14">
-        <v>23.29112553356561</v>
+        <v>21.10846802698115</v>
       </c>
       <c r="G14">
-        <v>3.611740465434182</v>
+        <v>2.04693135322564</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.34316608525194</v>
+        <v>11.13276583182664</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.29467776611246</v>
+        <v>19.75831858610431</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.93085448273073</v>
+        <v>21.11443030071879</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.48037936744795</v>
+        <v>15.47737133915284</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.528254054625932</v>
+        <v>8.918876470928367</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.770505973446578</v>
+        <v>4.920256486011276</v>
       </c>
       <c r="E15">
-        <v>13.06250559934342</v>
+        <v>16.20595624425386</v>
       </c>
       <c r="F15">
-        <v>23.28430777256944</v>
+        <v>21.02811197078341</v>
       </c>
       <c r="G15">
-        <v>3.611957387910917</v>
+        <v>2.047590054044046</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.3564900247441</v>
+        <v>11.1779708877032</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.24593625034494</v>
+        <v>19.66269229878505</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.89692880693406</v>
+        <v>21.00000063743051</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.48310762100509</v>
+        <v>15.44076903798278</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.434206841105886</v>
+        <v>8.665966189685198</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.737424996523998</v>
+        <v>4.831821426594806</v>
       </c>
       <c r="E16">
-        <v>12.94733542256752</v>
+        <v>15.6174351037713</v>
       </c>
       <c r="F16">
-        <v>23.24749266642433</v>
+        <v>20.57073245185593</v>
       </c>
       <c r="G16">
-        <v>3.613219529208374</v>
+        <v>2.051384823769141</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.43394911879106</v>
+        <v>11.43842920015407</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.96223855217418</v>
+        <v>19.1063921887884</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.70180931104938</v>
+        <v>20.33463231921432</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.50051301298679</v>
+        <v>15.23673690831309</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.375970807400755</v>
+        <v>8.507166774811139</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.716922728897173</v>
+        <v>4.77671803244563</v>
       </c>
       <c r="E17">
-        <v>12.87746828406378</v>
+        <v>15.25071838748389</v>
       </c>
       <c r="F17">
-        <v>23.22692562675775</v>
+        <v>20.29298709501442</v>
       </c>
       <c r="G17">
-        <v>3.614010846823194</v>
+        <v>2.053731505143618</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.48245569489938</v>
+        <v>11.59950100581536</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.78432435986221</v>
+        <v>18.75770335314076</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.58154298540339</v>
+        <v>19.91779769048671</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.5127679168963</v>
+        <v>15.11662253387001</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.34228753943149</v>
+        <v>8.414489550106232</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.705055716361641</v>
+        <v>4.74471664900487</v>
       </c>
       <c r="E18">
-        <v>12.83758623647318</v>
+        <v>15.05575345803745</v>
       </c>
       <c r="F18">
-        <v>23.21583968756923</v>
+        <v>20.13430890859352</v>
       </c>
       <c r="G18">
-        <v>3.614472267706935</v>
+        <v>2.055088457705486</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.51071922522341</v>
+        <v>11.69263241962784</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.68058294564511</v>
+        <v>18.55442008731595</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.51218589378276</v>
+        <v>19.67483900821698</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.52039503183798</v>
+        <v>15.04937130355008</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.330851881505427</v>
+        <v>8.382880568093508</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.70102510570002</v>
+        <v>4.733829289513098</v>
       </c>
       <c r="E19">
-        <v>12.82413641569113</v>
+        <v>14.99468969650116</v>
       </c>
       <c r="F19">
-        <v>23.21221408885904</v>
+        <v>20.08077052748714</v>
       </c>
       <c r="G19">
-        <v>3.614629576277871</v>
+        <v>2.055549165862952</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.52035133250571</v>
+        <v>11.72425005496688</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.64521716543665</v>
+        <v>18.48512360635423</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.48867376742512</v>
+        <v>19.59202426230687</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.52307666467906</v>
+        <v>15.02691429762226</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.382189794469391</v>
+        <v>8.524209944429353</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.719112998314484</v>
+        <v>4.782615823214181</v>
       </c>
       <c r="E20">
-        <v>12.88487466301874</v>
+        <v>15.28997467961847</v>
       </c>
       <c r="F20">
-        <v>23.22903809992372</v>
+        <v>20.32244313664456</v>
       </c>
       <c r="G20">
-        <v>3.613925960531771</v>
+        <v>2.053480958583591</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.47725444933484</v>
+        <v>11.58230451846806</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.80340987984516</v>
+        <v>18.79510407679119</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.59436506607196</v>
+        <v>19.96250172257582</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.51140346883421</v>
+        <v>15.12921846018355</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.55235885491016</v>
+        <v>8.98304555868271</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.778980988092102</v>
+        <v>4.942821243710449</v>
       </c>
       <c r="E21">
-        <v>13.09247114920734</v>
+        <v>16.3561741392866</v>
       </c>
       <c r="F21">
-        <v>23.29443463023107</v>
+        <v>21.14705503222199</v>
       </c>
       <c r="G21">
-        <v>3.611636781572104</v>
+        <v>2.046615830230356</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.33679641339974</v>
+        <v>11.11111317608456</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.31797273049052</v>
+        <v>19.80402722466785</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.94710942992551</v>
+        <v>21.16913332227107</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.47910246041952</v>
+        <v>15.49502504574101</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.661668530485692</v>
+        <v>9.270991875319746</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.81740459785054</v>
+        <v>5.044676663494185</v>
       </c>
       <c r="E22">
-        <v>13.2305357975114</v>
+        <v>17.03486544422354</v>
       </c>
       <c r="F22">
-        <v>23.34374802365007</v>
+        <v>21.69497000461139</v>
       </c>
       <c r="G22">
-        <v>3.610196224760203</v>
+        <v>2.042186090003276</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.2482225504912</v>
+        <v>10.80721372322398</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.64143222522826</v>
+        <v>20.43918789296255</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.17549184802334</v>
+        <v>21.92977379623366</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.46316733960413</v>
+        <v>15.75088577689332</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.603513218872272</v>
+        <v>9.118400088528436</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.79696341646914</v>
+        <v>4.990580009393222</v>
       </c>
       <c r="E23">
-        <v>13.15664492773568</v>
+        <v>16.67425468269482</v>
       </c>
       <c r="F23">
-        <v>23.31682983710714</v>
+        <v>21.40173982164212</v>
       </c>
       <c r="G23">
-        <v>3.610960009867447</v>
+        <v>2.044545469925169</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.29520191346994</v>
+        <v>10.96905385376882</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.46998266433651</v>
+        <v>20.10240275969408</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.05382181124023</v>
+        <v>21.52633365450802</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.47119756184275</v>
+        <v>15.61277203464687</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.379378818777501</v>
+        <v>8.516509029895799</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.718123026202552</v>
+        <v>4.77995043276132</v>
       </c>
       <c r="E24">
-        <v>12.88152534629026</v>
+        <v>15.27223381740822</v>
       </c>
       <c r="F24">
-        <v>23.22808075043083</v>
+        <v>20.30912293445627</v>
       </c>
       <c r="G24">
-        <v>3.61396431742985</v>
+        <v>2.053594206267119</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.4796047596222</v>
+        <v>11.59007739924042</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.79478584866639</v>
+        <v>18.77820398548341</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.58856886517137</v>
+        <v>19.94230136111279</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.51201852437556</v>
+        <v>15.12351822750452</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.130611213458269</v>
+        <v>7.8160822131105</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.630251282394996</v>
+        <v>4.541090758923709</v>
       </c>
       <c r="E25">
-        <v>12.59655355192881</v>
+        <v>13.92702810227373</v>
       </c>
       <c r="F25">
-        <v>23.16079429322947</v>
+        <v>19.17208499161215</v>
       </c>
       <c r="G25">
-        <v>3.617445099086462</v>
+        <v>2.063633691804291</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.69243345347992</v>
+        <v>12.27874243629824</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.01281820610098</v>
+        <v>17.2456896865871</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.08006721630864</v>
+        <v>18.11082497739248</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.57814499268383</v>
+        <v>14.66560747684312</v>
       </c>
     </row>
   </sheetData>
